--- a/data/pca/factorExposure/factorExposure_2016-10-11.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-10-11.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +711,76 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.01186175114766908</v>
+        <v>0.01150041421566952</v>
       </c>
       <c r="C2">
-        <v>0.05154811042176511</v>
+        <v>0.04202422727592795</v>
       </c>
       <c r="D2">
-        <v>-0.02366720597443096</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.06344949933898912</v>
+      </c>
+      <c r="E2">
+        <v>0.04995080641753306</v>
+      </c>
+      <c r="F2">
+        <v>-0.08583056521624831</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
-        <v>-0.05271266718227133</v>
+        <v>0.0313745214541242</v>
       </c>
       <c r="C3">
-        <v>0.09879526222395232</v>
+        <v>0.08067784030874768</v>
       </c>
       <c r="D3">
-        <v>-0.05389278578826039</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-0.100302062658369</v>
+      </c>
+      <c r="E3">
+        <v>0.06787167790413969</v>
+      </c>
+      <c r="F3">
+        <v>-0.02302222277288905</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.06457709173143818</v>
+        <v>0.05496174606583375</v>
       </c>
       <c r="C4">
-        <v>0.05820451524930702</v>
+        <v>0.06473331592365905</v>
       </c>
       <c r="D4">
-        <v>-0.01766692442546628</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.06031650600189479</v>
+      </c>
+      <c r="E4">
+        <v>0.04593169704370021</v>
+      </c>
+      <c r="F4">
+        <v>-0.07971405979852167</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +791,236 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.02840980482593108</v>
+        <v>0.03222316520627184</v>
       </c>
       <c r="C6">
-        <v>0.04285547924717489</v>
+        <v>0.03708068543098407</v>
       </c>
       <c r="D6">
-        <v>-0.02706150583066857</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.07058019689795406</v>
+      </c>
+      <c r="E6">
+        <v>0.05887714651375382</v>
+      </c>
+      <c r="F6">
+        <v>-0.07404372175502956</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.02276499766037328</v>
+        <v>0.01999895453576964</v>
       </c>
       <c r="C7">
-        <v>0.03930911766532812</v>
+        <v>0.0358964921405058</v>
       </c>
       <c r="D7">
-        <v>0.004703588820818233</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.03980686375393733</v>
+      </c>
+      <c r="E7">
+        <v>0.03332274644817271</v>
+      </c>
+      <c r="F7">
+        <v>-0.1100184105915844</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>0.00121312159855373</v>
+        <v>0.003356435826426828</v>
       </c>
       <c r="C8">
-        <v>0.01852551384703397</v>
+        <v>0.02470812431200472</v>
       </c>
       <c r="D8">
-        <v>-0.0309156669833833</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.03610534801872716</v>
+      </c>
+      <c r="E8">
+        <v>0.03895606069151429</v>
+      </c>
+      <c r="F8">
+        <v>-0.05328860474492741</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.0290898127330508</v>
+        <v>0.03417446562192957</v>
       </c>
       <c r="C9">
-        <v>0.04236923426000662</v>
+        <v>0.05043023901202751</v>
       </c>
       <c r="D9">
-        <v>-0.0124426790535562</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.04562728479202735</v>
+      </c>
+      <c r="E9">
+        <v>0.0381132556981028</v>
+      </c>
+      <c r="F9">
+        <v>-0.08765865325028524</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.0786247280642289</v>
+        <v>0.1045888350357226</v>
       </c>
       <c r="C10">
-        <v>-0.1925171117787231</v>
+        <v>-0.1864703110370181</v>
       </c>
       <c r="D10">
-        <v>-0.008336821840369707</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.0003262686544241301</v>
+      </c>
+      <c r="E10">
+        <v>0.04528275194168593</v>
+      </c>
+      <c r="F10">
+        <v>-0.03943351045898309</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.04007430261156726</v>
+        <v>0.03411602632717335</v>
       </c>
       <c r="C11">
-        <v>0.05398930748564886</v>
+        <v>0.05167885678261059</v>
       </c>
       <c r="D11">
-        <v>0.002598622665215011</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.03330239175215437</v>
+      </c>
+      <c r="E11">
+        <v>0.004616007760996048</v>
+      </c>
+      <c r="F11">
+        <v>-0.06360299296230688</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.03525355903402327</v>
+        <v>0.03508892717106641</v>
       </c>
       <c r="C12">
-        <v>0.04400379971730591</v>
+        <v>0.04676529341679727</v>
       </c>
       <c r="D12">
-        <v>0.0006323399798944955</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.02649852523136522</v>
+      </c>
+      <c r="E12">
+        <v>0.01417018869948116</v>
+      </c>
+      <c r="F12">
+        <v>-0.06672827930408684</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.01126693348534542</v>
+        <v>0.01052563947834586</v>
       </c>
       <c r="C13">
-        <v>0.04309491146791587</v>
+        <v>0.04119105441920805</v>
       </c>
       <c r="D13">
-        <v>-0.01564638625016939</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.0676440975785076</v>
+      </c>
+      <c r="E13">
+        <v>0.06489108304459469</v>
+      </c>
+      <c r="F13">
+        <v>-0.1164730064930066</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.007820055779585038</v>
+        <v>0.004704500388012717</v>
       </c>
       <c r="C14">
-        <v>0.03203566213366435</v>
+        <v>0.02914516074982192</v>
       </c>
       <c r="D14">
-        <v>0.01653056508910994</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.03168527540008405</v>
+      </c>
+      <c r="E14">
+        <v>0.02664602797363551</v>
+      </c>
+      <c r="F14">
+        <v>-0.09874504548557965</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>-0.001644448766808613</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.0019411371584261</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.002147431064742019</v>
+      </c>
+      <c r="E15">
+        <v>0.0004158757428312749</v>
+      </c>
+      <c r="F15">
+        <v>-0.001932826959428506</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.03518783456380441</v>
+        <v>0.03212989940730929</v>
       </c>
       <c r="C16">
-        <v>0.03860699086924084</v>
+        <v>0.04464805475329081</v>
       </c>
       <c r="D16">
-        <v>-0.004130540860153632</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.02911195357381698</v>
+      </c>
+      <c r="E16">
+        <v>0.0191789191894572</v>
+      </c>
+      <c r="F16">
+        <v>-0.06862407732928978</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1031,16 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1051,176 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
-        <v>-0.02458484877991681</v>
+        <v>0.01530692192381687</v>
       </c>
       <c r="C19">
-        <v>0.058994365866703</v>
+        <v>0.04996479112631588</v>
       </c>
       <c r="D19">
-        <v>-0.06780664879112695</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.1047301828084637</v>
+      </c>
+      <c r="E19">
+        <v>0.08081989927851262</v>
+      </c>
+      <c r="F19">
+        <v>-0.09903201290453961</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.0144916996120356</v>
+        <v>0.01222438547201566</v>
       </c>
       <c r="C20">
-        <v>0.04342847083415751</v>
+        <v>0.03967409148100608</v>
       </c>
       <c r="D20">
-        <v>-0.0156764908591312</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.04376767761968621</v>
+      </c>
+      <c r="E20">
+        <v>0.05566083646978447</v>
+      </c>
+      <c r="F20">
+        <v>-0.09056211955097698</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.009688036209585431</v>
+        <v>0.00540513748635478</v>
       </c>
       <c r="C21">
-        <v>0.04792395925013086</v>
+        <v>0.042366854227541</v>
       </c>
       <c r="D21">
-        <v>-0.03622736548491082</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.07419460458685076</v>
+      </c>
+      <c r="E21">
+        <v>0.0671190698567454</v>
+      </c>
+      <c r="F21">
+        <v>-0.1327257891731686</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>-0.001332317192271479</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>0.0222603804984162</v>
       </c>
       <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.03233318262096947</v>
+      </c>
+      <c r="E22">
+        <v>0.01486332278470511</v>
+      </c>
+      <c r="F22">
+        <v>-0.01259680007252002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>-0.001266393477524853</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>0.02239210967834787</v>
       </c>
       <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.0320321868988685</v>
+      </c>
+      <c r="E23">
+        <v>0.01516930050731585</v>
+      </c>
+      <c r="F23">
+        <v>-0.01246953079315353</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.02907656560115829</v>
+        <v>0.03039673631577506</v>
       </c>
       <c r="C24">
-        <v>0.04571553415693483</v>
+        <v>0.05222926094399633</v>
       </c>
       <c r="D24">
-        <v>0.000914192778929904</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.026880349950092</v>
+      </c>
+      <c r="E24">
+        <v>0.01550347437861074</v>
+      </c>
+      <c r="F24">
+        <v>-0.07521281916536968</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.04596455021006336</v>
+        <v>0.04093603075598313</v>
       </c>
       <c r="C25">
-        <v>0.05657194872924154</v>
+        <v>0.05814891188673295</v>
       </c>
       <c r="D25">
-        <v>0.01137759230743479</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.02450449134159598</v>
+      </c>
+      <c r="E25">
+        <v>0.01208792331809479</v>
+      </c>
+      <c r="F25">
+        <v>-0.07772981213928656</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.01138051882000412</v>
+        <v>0.01252902494329454</v>
       </c>
       <c r="C26">
-        <v>0.01609074728845498</v>
+        <v>0.01519771927701773</v>
       </c>
       <c r="D26">
-        <v>-0.00304418883511995</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.02661798675382809</v>
+      </c>
+      <c r="E26">
+        <v>0.02661021533638711</v>
+      </c>
+      <c r="F26">
+        <v>-0.07361866985726026</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1231,156 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.09036367311411463</v>
+        <v>0.1391707834739752</v>
       </c>
       <c r="C28">
-        <v>-0.2173909935768839</v>
+        <v>-0.236975497570345</v>
       </c>
       <c r="D28">
-        <v>-0.002408689103264192</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.01559543524794825</v>
+      </c>
+      <c r="E28">
+        <v>0.04527607431560395</v>
+      </c>
+      <c r="F28">
+        <v>-0.05294948274376348</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.01215176132859192</v>
+        <v>0.005551399685222023</v>
       </c>
       <c r="C29">
-        <v>0.02596090930201842</v>
+        <v>0.02598677116639981</v>
       </c>
       <c r="D29">
-        <v>0.01617938112653819</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.02452290122749746</v>
+      </c>
+      <c r="E29">
+        <v>0.0299932101872137</v>
+      </c>
+      <c r="F29">
+        <v>-0.09059075498535231</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.05134750662540175</v>
+        <v>0.03817890600817266</v>
       </c>
       <c r="C30">
-        <v>0.06424994563050362</v>
+        <v>0.06222121737987639</v>
       </c>
       <c r="D30">
-        <v>-0.03393283705509262</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.1088077550677534</v>
+      </c>
+      <c r="E30">
+        <v>0.03348017024187653</v>
+      </c>
+      <c r="F30">
+        <v>-0.1010127061915837</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.04294987741229159</v>
+        <v>0.05214193559833288</v>
       </c>
       <c r="C31">
-        <v>0.03186108663848913</v>
+        <v>0.05104004963679189</v>
       </c>
       <c r="D31">
-        <v>0.01249123156332763</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.002716250086303689</v>
+      </c>
+      <c r="E31">
+        <v>0.0447904418970891</v>
+      </c>
+      <c r="F31">
+        <v>-0.08063548285552402</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>-0.0007154133605253516</v>
+        <v>0.003246255807437226</v>
       </c>
       <c r="C32">
-        <v>0.04760789137145296</v>
+        <v>0.03020764867719161</v>
       </c>
       <c r="D32">
-        <v>-0.01671453907654284</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.04971377747722904</v>
+      </c>
+      <c r="E32">
+        <v>0.02151080141243901</v>
+      </c>
+      <c r="F32">
+        <v>-0.07026995750069812</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.0261494690281838</v>
+        <v>0.02251142465590604</v>
       </c>
       <c r="C33">
-        <v>0.06078836831019159</v>
+        <v>0.05351778416779601</v>
       </c>
       <c r="D33">
-        <v>-0.01836257149996427</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.08345719992414566</v>
+      </c>
+      <c r="E33">
+        <v>0.04799298503037675</v>
+      </c>
+      <c r="F33">
+        <v>-0.1275456729921312</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.04991998764519325</v>
+        <v>0.03960438184475418</v>
       </c>
       <c r="C34">
-        <v>0.05398062841624612</v>
+        <v>0.0636782177260876</v>
       </c>
       <c r="D34">
-        <v>0.012448083594354</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.03419506399085438</v>
+      </c>
+      <c r="E34">
+        <v>-0.005617389371571496</v>
+      </c>
+      <c r="F34">
+        <v>-0.07426775393695816</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1391,36 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>-0.008990071824463958</v>
+        <v>0.01322299441840421</v>
       </c>
       <c r="C36">
-        <v>0.01211010619500106</v>
+        <v>0.01135415305801173</v>
       </c>
       <c r="D36">
-        <v>-0.002138754309871643</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.02913153229236647</v>
+      </c>
+      <c r="E36">
+        <v>0.03419307999016376</v>
+      </c>
+      <c r="F36">
+        <v>-0.08250827713680664</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,108 +1431,156 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
-        <v>-0.03293536489053377</v>
+        <v>0.02531279806750427</v>
       </c>
       <c r="C38">
-        <v>0.02463340440625152</v>
+        <v>0.02456510163557447</v>
       </c>
       <c r="D38">
-        <v>-0.001318103079666668</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.02840905184734042</v>
+      </c>
+      <c r="E38">
+        <v>0.03518231556795402</v>
+      </c>
+      <c r="F38">
+        <v>-0.06796615177182488</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.04041712624823449</v>
+        <v>0.03581791768110506</v>
       </c>
       <c r="C39">
-        <v>0.07027741823210706</v>
+        <v>0.06741767407771297</v>
       </c>
       <c r="D39">
-        <v>-0.02020643191919404</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.05178454187088503</v>
+      </c>
+      <c r="E39">
+        <v>0.01716137467709719</v>
+      </c>
+      <c r="F39">
+        <v>-0.08977683383890556</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.01857071987572766</v>
+        <v>0.01448005779440298</v>
       </c>
       <c r="C40">
-        <v>0.02892551084093917</v>
+        <v>0.03629175009095748</v>
       </c>
       <c r="D40">
-        <v>-0.03467202075195413</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.04248090306238689</v>
+      </c>
+      <c r="E40">
+        <v>0.07119806760848825</v>
+      </c>
+      <c r="F40">
+        <v>-0.08695345983595217</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.01106192154836016</v>
+        <v>0.0178042261710737</v>
       </c>
       <c r="C41">
-        <v>0.003132164273638043</v>
+        <v>0.004515361496873161</v>
       </c>
       <c r="D41">
-        <v>0.0002797579749858526</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.01955527849552915</v>
+      </c>
+      <c r="E41">
+        <v>0.03669760202646573</v>
+      </c>
+      <c r="F41">
+        <v>-0.07274243532741344</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
-        <v>-0.001379406015956154</v>
+        <v>0.000717267652856607</v>
       </c>
       <c r="C42">
-        <v>0.01691827016971006</v>
+        <v>0.008947289770719003</v>
       </c>
       <c r="D42">
-        <v>-0.006821629590002765</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>0.003350456102546291</v>
+      </c>
+      <c r="E42">
+        <v>0.005246740009110551</v>
+      </c>
+      <c r="F42">
+        <v>0.01658707458595884</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.03247618631279982</v>
+        <v>0.02925658653306861</v>
       </c>
       <c r="C43">
-        <v>0.01665641279458177</v>
+        <v>0.01946408312523228</v>
       </c>
       <c r="D43">
-        <v>-0.006294246933966436</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.0442253488472308</v>
+      </c>
+      <c r="E43">
+        <v>0.04229631098222604</v>
+      </c>
+      <c r="F43">
+        <v>-0.08540116934565793</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.02180174966358987</v>
+        <v>0.01403420420710702</v>
       </c>
       <c r="C44">
-        <v>0.05382151038789497</v>
+        <v>0.05006688772573269</v>
       </c>
       <c r="D44">
-        <v>-0.01866066208941249</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.04329930963693878</v>
+      </c>
+      <c r="E44">
+        <v>0.05718406254514127</v>
+      </c>
+      <c r="F44">
+        <v>-0.09252782494699811</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1591,76 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>-0.001977725494769759</v>
+        <v>0.006771139173147252</v>
       </c>
       <c r="C46">
-        <v>0.01915010918606976</v>
+        <v>0.02355640480082465</v>
       </c>
       <c r="D46">
-        <v>0.01491789866891022</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01690734710091982</v>
+      </c>
+      <c r="E46">
+        <v>0.03373031264552778</v>
+      </c>
+      <c r="F46">
+        <v>-0.1038117394575573</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.07784795311362025</v>
+        <v>0.08423340176102308</v>
       </c>
       <c r="C47">
-        <v>0.0736902654471321</v>
+        <v>0.07898484155694159</v>
       </c>
       <c r="D47">
-        <v>0.005046330466931501</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.01025748526567914</v>
+      </c>
+      <c r="E47">
+        <v>0.0519897426174823</v>
+      </c>
+      <c r="F47">
+        <v>-0.08028950290487699</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.01957972087443234</v>
+        <v>0.01498854242380303</v>
       </c>
       <c r="C48">
-        <v>0.01063221471612028</v>
+        <v>0.01608707148394884</v>
       </c>
       <c r="D48">
-        <v>0.00388998944345428</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.01971463208501574</v>
+      </c>
+      <c r="E48">
+        <v>0.04384750155877571</v>
+      </c>
+      <c r="F48">
+        <v>-0.09625782404113895</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1671,56 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.08677125449340263</v>
+        <v>0.07068035911682606</v>
       </c>
       <c r="C50">
-        <v>0.06847593323034711</v>
+        <v>0.06959114509738082</v>
       </c>
       <c r="D50">
-        <v>0.01434413290935696</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-5.896279323282469e-05</v>
+      </c>
+      <c r="E50">
+        <v>0.04896787519880014</v>
+      </c>
+      <c r="F50">
+        <v>-0.06719020991779749</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
-        <v>-0.01137060172538427</v>
+        <v>0.009216150430490448</v>
       </c>
       <c r="C51">
-        <v>0.04562487693044191</v>
+        <v>0.03249305648776089</v>
       </c>
       <c r="D51">
-        <v>-0.002239970760276459</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.04912702622212334</v>
+      </c>
+      <c r="E51">
+        <v>0.01939178684752472</v>
+      </c>
+      <c r="F51">
+        <v>-0.08594908725300711</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,136 +1731,196 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.09260966971237343</v>
+        <v>0.0900134305719817</v>
       </c>
       <c r="C53">
-        <v>0.07680606672104623</v>
+        <v>0.0904303843745453</v>
       </c>
       <c r="D53">
-        <v>0.03778148848403754</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.0383247390740531</v>
+      </c>
+      <c r="E53">
+        <v>0.05250188124927671</v>
+      </c>
+      <c r="F53">
+        <v>-0.08753370130797494</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.029471454824785</v>
+        <v>0.02749154092639215</v>
       </c>
       <c r="C54">
-        <v>0.01782964794608926</v>
+        <v>0.02628343275578015</v>
       </c>
       <c r="D54">
-        <v>-0.003590579485934241</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.03600988129770898</v>
+      </c>
+      <c r="E54">
+        <v>0.03834232884066821</v>
+      </c>
+      <c r="F54">
+        <v>-0.09641826190266005</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.07346765030578584</v>
+        <v>0.08127586757571471</v>
       </c>
       <c r="C55">
-        <v>0.07065750057546348</v>
+        <v>0.07465645068938233</v>
       </c>
       <c r="D55">
-        <v>0.03597366305179107</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.04570714526088036</v>
+      </c>
+      <c r="E55">
+        <v>0.04317732692787835</v>
+      </c>
+      <c r="F55">
+        <v>-0.06304326292227516</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>-0.14952385533047</v>
+        <v>0.1435008524595145</v>
       </c>
       <c r="C56">
-        <v>0.09525239569590623</v>
+        <v>0.1074934285274081</v>
       </c>
       <c r="D56">
-        <v>0.03364767473281266</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.04858768996523097</v>
+      </c>
+      <c r="E56">
+        <v>0.04885292202109619</v>
+      </c>
+      <c r="F56">
+        <v>-0.05187392431542233</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
-        <v>-0.003721116617778703</v>
+        <v>0.001569503926245464</v>
       </c>
       <c r="C57">
-        <v>0.002743245486517888</v>
+        <v>0.001533217575653932</v>
       </c>
       <c r="D57">
-        <v>-0.01574065418238105</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>-0.01573817494161621</v>
+      </c>
+      <c r="E57">
+        <v>0.007404938734860472</v>
+      </c>
+      <c r="F57">
+        <v>-0.01433148987629362</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>-0.0773841535828135</v>
+        <v>0.02890158504233606</v>
       </c>
       <c r="C58">
-        <v>0.03846645728888039</v>
+        <v>0.0327726858019837</v>
       </c>
       <c r="D58">
-        <v>-0.9631624596183683</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.5082996258526374</v>
+      </c>
+      <c r="E58">
+        <v>0.6747183571352725</v>
+      </c>
+      <c r="F58">
+        <v>0.4482663329255238</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>-0.1360199021634513</v>
+        <v>0.1518640061687498</v>
       </c>
       <c r="C59">
-        <v>-0.2029512219509618</v>
+        <v>-0.1852166436659624</v>
       </c>
       <c r="D59">
-        <v>-0.02367579582371628</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.03011914329723104</v>
+      </c>
+      <c r="E59">
+        <v>0.02431278013341875</v>
+      </c>
+      <c r="F59">
+        <v>-0.02360200662671116</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>-0.3122226926810814</v>
+        <v>0.2798056164297968</v>
       </c>
       <c r="C60">
-        <v>0.08916802819118277</v>
+        <v>0.1055842581277702</v>
       </c>
       <c r="D60">
-        <v>0.02232533820974679</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.2010417450195999</v>
+      </c>
+      <c r="E60">
+        <v>-0.2776595782421858</v>
+      </c>
+      <c r="F60">
+        <v>0.1261484630684004</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>-0.03653416852500489</v>
+        <v>0.03846798167768007</v>
       </c>
       <c r="C61">
-        <v>0.06179288035869468</v>
+        <v>0.06129020288598878</v>
       </c>
       <c r="D61">
-        <v>-0.01063886165501009</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.04740011088254315</v>
+      </c>
+      <c r="E61">
+        <v>0.02267256604707227</v>
+      </c>
+      <c r="F61">
+        <v>-0.08112862420247867</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +1931,156 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>-0.01271363866506646</v>
+        <v>0.01413157619364754</v>
       </c>
       <c r="C63">
-        <v>0.03621916532191619</v>
+        <v>0.03129354084092364</v>
       </c>
       <c r="D63">
-        <v>0.00551770882981051</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.02371722718979079</v>
+      </c>
+      <c r="E63">
+        <v>0.03677632469764938</v>
+      </c>
+      <c r="F63">
+        <v>-0.07597098563578843</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>-0.05000018120021141</v>
+        <v>0.05373371099784795</v>
       </c>
       <c r="C64">
-        <v>0.02940492617753794</v>
+        <v>0.05333504874844236</v>
       </c>
       <c r="D64">
-        <v>0.006355410105745158</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.01258327553004357</v>
+      </c>
+      <c r="E64">
+        <v>0.02071995447143114</v>
+      </c>
+      <c r="F64">
+        <v>-0.08776230389476528</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>-0.0924510702199704</v>
+        <v>0.06572193939360639</v>
       </c>
       <c r="C65">
-        <v>0.04851990874138288</v>
+        <v>0.04289120010911741</v>
       </c>
       <c r="D65">
-        <v>-0.03289186515588503</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.08444125731682239</v>
+      </c>
+      <c r="E65">
+        <v>0.03413928035478799</v>
+      </c>
+      <c r="F65">
+        <v>-0.02697324597443604</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>-0.06419915448881744</v>
+        <v>0.04820717095446978</v>
       </c>
       <c r="C66">
-        <v>0.106201359416225</v>
+        <v>0.09154683319516703</v>
       </c>
       <c r="D66">
-        <v>-0.02333009647559518</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.07863981173772573</v>
+      </c>
+      <c r="E66">
+        <v>0.0199135132711418</v>
+      </c>
+      <c r="F66">
+        <v>-0.09105049925908494</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>-0.05703141662925861</v>
+        <v>0.04798047317107954</v>
       </c>
       <c r="C67">
-        <v>0.03018272571122554</v>
+        <v>0.03101086049011306</v>
       </c>
       <c r="D67">
-        <v>0.006357294782165479</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.01593066531906867</v>
+      </c>
+      <c r="E67">
+        <v>0.02021535135021159</v>
+      </c>
+      <c r="F67">
+        <v>-0.054899449114579</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>-0.1193574986823972</v>
+        <v>0.1588610415398672</v>
       </c>
       <c r="C68">
-        <v>-0.2848993621711717</v>
+        <v>-0.2513039449669374</v>
       </c>
       <c r="D68">
-        <v>-0.006099044658794719</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.01798431159826449</v>
+      </c>
+      <c r="E68">
+        <v>0.03976289618899211</v>
+      </c>
+      <c r="F68">
+        <v>-0.01771450606212715</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>-0.08654207790579359</v>
+        <v>0.08422272478223673</v>
       </c>
       <c r="C69">
-        <v>0.06766078269172908</v>
+        <v>0.08432494458398695</v>
       </c>
       <c r="D69">
-        <v>0.03513532747866072</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.006949204344572686</v>
+      </c>
+      <c r="E69">
+        <v>0.02541313061435521</v>
+      </c>
+      <c r="F69">
+        <v>-0.0946270333094664</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,192 +2091,276 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>-0.1250810844438296</v>
+        <v>0.149354798451234</v>
       </c>
       <c r="C71">
-        <v>-0.2436679242889982</v>
+        <v>-0.2288523629969496</v>
       </c>
       <c r="D71">
-        <v>-0.01773833718376791</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.01572906051553091</v>
+      </c>
+      <c r="E71">
+        <v>0.05671102186132666</v>
+      </c>
+      <c r="F71">
+        <v>-0.05626385978580185</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>-0.08270798427883795</v>
+        <v>0.09433914244010984</v>
       </c>
       <c r="C72">
-        <v>0.04742953408297627</v>
+        <v>0.05698004229194224</v>
       </c>
       <c r="D72">
-        <v>0.01969660469699429</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.02016373474860132</v>
+      </c>
+      <c r="E72">
+        <v>0.01018529647934057</v>
+      </c>
+      <c r="F72">
+        <v>-0.08140278851625546</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>-0.4345037935448136</v>
+        <v>0.3450987192650384</v>
       </c>
       <c r="C73">
-        <v>0.06735104600431524</v>
+        <v>0.08718274752673126</v>
       </c>
       <c r="D73">
-        <v>-0.02552401833875724</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.4186262801990706</v>
+      </c>
+      <c r="E73">
+        <v>-0.4956164345752529</v>
+      </c>
+      <c r="F73">
+        <v>0.2981537849753008</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>-0.119679114790716</v>
+        <v>0.1104385285055719</v>
       </c>
       <c r="C74">
-        <v>0.116152972227627</v>
+        <v>0.1031912920749386</v>
       </c>
       <c r="D74">
-        <v>0.01353097862468122</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.0254425742234638</v>
+      </c>
+      <c r="E74">
+        <v>0.06749713512353789</v>
+      </c>
+      <c r="F74">
+        <v>-0.05942801558840134</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>-0.259019460325902</v>
+        <v>0.2535921417343627</v>
       </c>
       <c r="C75">
-        <v>0.1329115732933317</v>
+        <v>0.1484083043533616</v>
       </c>
       <c r="D75">
-        <v>0.05195345738107759</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.1271882248917301</v>
+      </c>
+      <c r="E75">
+        <v>0.08179837978835444</v>
+      </c>
+      <c r="F75">
+        <v>-0.02159797592175755</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
-        <v>-0.1190190061904154</v>
+        <v>0.1268136504886326</v>
       </c>
       <c r="C76">
-        <v>0.1068238481105922</v>
+        <v>0.1098119453655591</v>
       </c>
       <c r="D76">
-        <v>0.03496744251820437</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.05889108849831265</v>
+      </c>
+      <c r="E76">
+        <v>0.0712715462506483</v>
+      </c>
+      <c r="F76">
+        <v>-0.07013943796443188</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>-0.07335071401191254</v>
+        <v>0.06003968600404913</v>
       </c>
       <c r="C77">
-        <v>0.05981775516313367</v>
+        <v>0.06800916052954969</v>
       </c>
       <c r="D77">
-        <v>-0.04193017583926034</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.06778000439347405</v>
+      </c>
+      <c r="E77">
+        <v>0.06291554140051231</v>
+      </c>
+      <c r="F77">
+        <v>-0.1222521374757984</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>-0.04361196283764293</v>
+        <v>0.04046383627215708</v>
       </c>
       <c r="C78">
-        <v>0.04369702534454883</v>
+        <v>0.0553901537536197</v>
       </c>
       <c r="D78">
-        <v>-0.01355242725899701</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.07275687768808392</v>
+      </c>
+      <c r="E78">
+        <v>0.01717737208959693</v>
+      </c>
+      <c r="F78">
+        <v>-0.1026279436221989</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>0.01811028673600135</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>0.03363518062777927</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.05622929999143635</v>
+      </c>
+      <c r="E79">
+        <v>0.03935686198453879</v>
+      </c>
+      <c r="F79">
+        <v>-0.02877978939243608</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>-0.04569794923308655</v>
+        <v>0.03345724703897533</v>
       </c>
       <c r="C80">
-        <v>0.05318644551836887</v>
+        <v>0.05190439113934035</v>
       </c>
       <c r="D80">
-        <v>-0.02681657701575298</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.04871024128423364</v>
+      </c>
+      <c r="E80">
+        <v>0.009816523540770389</v>
+      </c>
+      <c r="F80">
+        <v>-0.03483984881754403</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>-0.1402985602069719</v>
+        <v>0.138308644283437</v>
       </c>
       <c r="C81">
-        <v>0.08256737250509266</v>
+        <v>0.1001072621125621</v>
       </c>
       <c r="D81">
-        <v>0.023596117944994</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.09162279682570794</v>
+      </c>
+      <c r="E81">
+        <v>0.08214532769308751</v>
+      </c>
+      <c r="F81">
+        <v>-0.02526174123994822</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>-0.07139952605204075</v>
+        <v>0.1899687442755847</v>
       </c>
       <c r="C82">
-        <v>0.04796563759106704</v>
+        <v>0.1431074442263075</v>
       </c>
       <c r="D82">
-        <v>0.02914198478159461</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.2252286322845821</v>
+      </c>
+      <c r="E82">
+        <v>0.019481988371724</v>
+      </c>
+      <c r="F82">
+        <v>-0.07813546297903892</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>-0.0264091611586401</v>
+        <v>0.0256653263360545</v>
       </c>
       <c r="C83">
-        <v>0.0207828159954948</v>
+        <v>0.03758927609136081</v>
       </c>
       <c r="D83">
-        <v>-0.01513588531723449</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.03437830352453081</v>
+      </c>
+      <c r="E83">
+        <v>0.006865588557838438</v>
+      </c>
+      <c r="F83">
+        <v>-0.05149832041434109</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1867,164 +2371,236 @@
       <c r="D84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>-0.236335244807642</v>
+        <v>0.203303764658043</v>
       </c>
       <c r="C85">
-        <v>0.1194841428138207</v>
+        <v>0.1313048522394763</v>
       </c>
       <c r="D85">
-        <v>0.1178403093725509</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.1050630633895297</v>
+      </c>
+      <c r="E85">
+        <v>0.004816685559254088</v>
+      </c>
+      <c r="F85">
+        <v>0.01750688517010023</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>-0.00711092250260298</v>
+        <v>0.01127826475392931</v>
       </c>
       <c r="C86">
-        <v>0.02060206918969831</v>
+        <v>0.0290434701218655</v>
       </c>
       <c r="D86">
-        <v>-0.02508627563730024</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.07770460924477729</v>
+      </c>
+      <c r="E86">
+        <v>0.04330625201150579</v>
+      </c>
+      <c r="F86">
+        <v>-0.1414398120118777</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>-0.01994323086361804</v>
+        <v>0.01876009544537265</v>
       </c>
       <c r="C87">
-        <v>0.01876701178172794</v>
+        <v>0.01970988661277459</v>
       </c>
       <c r="D87">
-        <v>-0.09513784567479863</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.09222356642009141</v>
+      </c>
+      <c r="E87">
+        <v>0.0813778881611395</v>
+      </c>
+      <c r="F87">
+        <v>-0.09485129479996067</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>-0.1026030933646945</v>
+        <v>0.0873159181885302</v>
       </c>
       <c r="C88">
-        <v>0.07325368191381407</v>
+        <v>0.06497591903618399</v>
       </c>
       <c r="D88">
-        <v>0.0178321296283914</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.01446811556767022</v>
+      </c>
+      <c r="E88">
+        <v>0.03040890381439704</v>
+      </c>
+      <c r="F88">
+        <v>-0.07160337403081499</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.1950417408770848</v>
+        <v>0.2322241550584195</v>
       </c>
       <c r="C89">
-        <v>-0.3751165460354597</v>
+        <v>-0.3766850578894869</v>
       </c>
       <c r="D89">
-        <v>0.02694595062469088</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.01817856401954716</v>
+      </c>
+      <c r="E89">
+        <v>0.03424696434576838</v>
+      </c>
+      <c r="F89">
+        <v>-0.1004667217302258</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>-0.1801189890025004</v>
+        <v>0.2099665852945635</v>
       </c>
       <c r="C90">
-        <v>-0.3458408030326163</v>
+        <v>-0.3149164449300528</v>
       </c>
       <c r="D90">
-        <v>-0.005972409759287395</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.01296499358525861</v>
+      </c>
+      <c r="E90">
+        <v>0.06113243117271563</v>
+      </c>
+      <c r="F90">
+        <v>-0.04741673553836632</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>-0.2017382100689726</v>
+        <v>0.1876903571574174</v>
       </c>
       <c r="C91">
-        <v>0.1178316455507924</v>
+        <v>0.1434994858719977</v>
       </c>
       <c r="D91">
-        <v>0.05168603165410952</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.0996686900549358</v>
+      </c>
+      <c r="E91">
+        <v>0.07487521110878069</v>
+      </c>
+      <c r="F91">
+        <v>-0.04749137176023914</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.1720163104725752</v>
+        <v>0.1900095881412097</v>
       </c>
       <c r="C92">
-        <v>-0.2805207919726581</v>
+        <v>-0.271408324211097</v>
       </c>
       <c r="D92">
-        <v>0.01164450957736704</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.00627895195476686</v>
+      </c>
+      <c r="E92">
+        <v>0.06938708837092987</v>
+      </c>
+      <c r="F92">
+        <v>-0.07149246320077457</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>-0.2037039922299705</v>
+        <v>0.2351827228643908</v>
       </c>
       <c r="C93">
-        <v>-0.3445965615447127</v>
+        <v>-0.3160730665516177</v>
       </c>
       <c r="D93">
-        <v>-0.01176060873891047</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>5.388873299947649e-06</v>
+      </c>
+      <c r="E93">
+        <v>0.04909876917990215</v>
+      </c>
+      <c r="F93">
+        <v>-0.04289966743501786</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>-0.2899141277371277</v>
+        <v>0.3367338508123585</v>
       </c>
       <c r="C94">
-        <v>0.1598463279106402</v>
+        <v>0.2025214130291465</v>
       </c>
       <c r="D94">
-        <v>0.0779968692808079</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.4660509753614654</v>
+      </c>
+      <c r="E94">
+        <v>0.172760866627359</v>
+      </c>
+      <c r="F94">
+        <v>0.4307491646822234</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>-0.09568506158909172</v>
+        <v>0.08123339932930779</v>
       </c>
       <c r="C95">
-        <v>0.07527788564846397</v>
+        <v>0.07502336034251965</v>
       </c>
       <c r="D95">
-        <v>-0.02748216763502815</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.1516413652712234</v>
+      </c>
+      <c r="E95">
+        <v>-0.1398828805455281</v>
+      </c>
+      <c r="F95">
+        <v>-0.2122676688202529</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2611,16 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2631,36 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>-0.2046199408900574</v>
+        <v>0.1886152633412287</v>
       </c>
       <c r="C98">
-        <v>0.02276861917431297</v>
+        <v>0.04424909976933581</v>
       </c>
       <c r="D98">
-        <v>-0.0190284816172968</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.1707815767086436</v>
+      </c>
+      <c r="E98">
+        <v>-0.1563259695824358</v>
+      </c>
+      <c r="F98">
+        <v>0.0429742470089526</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2671,16 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2691,56 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>-0.01185714911127944</v>
+        <v>0.005432302544119698</v>
       </c>
       <c r="C101">
-        <v>0.02606434920104261</v>
+        <v>0.02572710796736236</v>
       </c>
       <c r="D101">
-        <v>0.01624825998234727</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.02387931370846309</v>
+      </c>
+      <c r="E101">
+        <v>0.03050225475477364</v>
+      </c>
+      <c r="F101">
+        <v>-0.09014935672471799</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
-        <v>-0.1206124563717151</v>
+        <v>0.1206423869165382</v>
       </c>
       <c r="C102">
-        <v>0.07923346698440954</v>
+        <v>0.1027222646409659</v>
       </c>
       <c r="D102">
-        <v>0.04230635489430592</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.05049285672237885</v>
+      </c>
+      <c r="E102">
+        <v>-0.01016361135490477</v>
+      </c>
+      <c r="F102">
+        <v>-0.03900655242384932</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
